--- a/measures.xlsx
+++ b/measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\FROMSOFT_NETWORK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89423134-5B87-4120-8FE7-1965929A3A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BF46E-91DC-488F-AEEC-D1E93B5670F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10584" yWindow="0" windowWidth="12546" windowHeight="12318" firstSheet="2" activeTab="4" xr2:uid="{1A638123-83E2-434F-AF21-621318669151}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1A638123-83E2-434F-AF21-621318669151}"/>
   </bookViews>
   <sheets>
     <sheet name="all_games" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="623">
   <si>
     <t>Dark Souls</t>
   </si>
@@ -1991,6 +1991,12 @@
 Halfway Fortress, 0.147
 Road of Sacrifices, 0.143
 Abyss Watchers, 0.143</t>
+  </si>
+  <si>
+    <t>4.380</t>
+  </si>
+  <si>
+    <t>9.650</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2085,10 +2091,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2427,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFAF057-DB88-445A-B5F4-7A0CBCF6EF3C}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2609,11 +2612,11 @@
       <c r="C9" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D9" s="10">
-        <v>13971</v>
-      </c>
-      <c r="E9" s="11">
-        <v>23986</v>
+      <c r="D9" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>622</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>601</v>
@@ -5499,7 +5502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F429872-7141-42FA-92E1-E1B886B29EE1}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
